--- a/VENANCIO_AIRES.xlsx
+++ b/VENANCIO_AIRES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6BB5D49-DE08-408A-9F76-27136EDF72D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9ED6FB53-02A0-410E-A02D-E0E27EFAB0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1341,7 +1341,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{51779A7A-A970-41B5-AFCC-E5B529AFDD56}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{4713B18D-6C5D-4ABA-9172-738C535CFA8D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1371,10 +1371,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{711E04D8-6F66-401E-961C-558D8320F12C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E97B5E04-3C4B-4264-B383-E0F16709E115}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1412,7 +1412,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A320854-7938-4AE5-94D7-3050306C1E65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ADAC54F-B264-4F68-ABB8-78C8F4A8E21E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1475,7 +1475,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FB2A42C-1FBF-4DA2-8E10-CAFE916C34F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E64F858-F2AD-4A43-81DD-DC41E1E11179}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1494,7 +1494,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6D40D53-C25A-6778-E15E-0FF38B62A233}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2DDC731-AF7B-39F8-7CDD-7BBE7BDF6613}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1543,7 +1543,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF637F26-0352-4EC1-76CF-8DE8063B2451}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{098FFB62-7D30-F229-1DD4-4C9D267AD826}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1562,7 +1562,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F22D9B8F-32DC-E34A-5429-6C432C6D6C00}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78CD7E10-7BD0-B1E8-73F9-5A1461588565}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1593,7 +1593,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F178D506-DD1B-22BF-10BC-E7E673CDCA0A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CB68E51-38DF-75BA-D84A-47185F380343}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1624,7 +1624,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62FE181F-9B0A-7AA5-244C-08B4C5A0F93B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E443236-F69C-A45B-5921-6E685D8D5473}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1667,7 +1667,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0E9A217-53FA-4C61-BC53-CF79BC302434}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A436061-0A4A-4D19-81B7-26BC19E57B53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1705,7 +1705,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9365EC9-B569-4FB7-A3BE-EEF033593271}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60FAA786-EEDC-4863-B30D-1600D44F97FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1748,7 +1748,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67DC3012-8AF9-4439-94B0-187C273A856E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B3D8342-39D6-4B87-A7DB-7DEBA4352BA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2061,7 +2061,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C5273C8-5E17-455F-A213-568592189421}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D62AA0-B0AD-49FD-B670-1709AE0D1460}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/VENANCIO_AIRES.xlsx
+++ b/VENANCIO_AIRES.xlsx
@@ -8,27 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9ED6FB53-02A0-410E-A02D-E0E27EFAB0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14845700-FC8C-417C-872F-4C75665D438D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="9" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="8" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="BENS-INTERINOS" sheetId="4" r:id="rId5"/>
     <sheet name="TABELIÕES-DOAÇÃO" sheetId="5" r:id="rId6"/>
     <sheet name="CPIP" sheetId="6" r:id="rId7"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="7" r:id="rId8"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="8" r:id="rId9"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="339">
   <si>
     <t>COMARCA</t>
   </si>
@@ -1045,12 +1044,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
   </si>
 </sst>
 </file>
@@ -1250,7 +1243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1321,27 +1314,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{4713B18D-6C5D-4ABA-9172-738C535CFA8D}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{D074189F-4199-40CF-8A0C-0EBEF73254E1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1371,10 +1349,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E97B5E04-3C4B-4264-B383-E0F16709E115}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8DFD1D9-A222-44CF-98D3-9D9E8A6B1F71}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1412,7 +1390,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ADAC54F-B264-4F68-ABB8-78C8F4A8E21E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{844ABEC4-45D4-471C-9DED-E66FA6E4B850}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1475,7 +1453,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E64F858-F2AD-4A43-81DD-DC41E1E11179}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE32A3F7-FAAB-4598-ACDD-3391797AF91A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1494,7 +1472,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2DDC731-AF7B-39F8-7CDD-7BBE7BDF6613}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AA1D65F-B426-F7EC-91E5-B747F3914EC8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1543,7 +1521,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{098FFB62-7D30-F229-1DD4-4C9D267AD826}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B356583-39A4-62CF-4531-CE23245A80C9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1562,7 +1540,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78CD7E10-7BD0-B1E8-73F9-5A1461588565}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5616649B-AC16-C9CF-642A-4CEE307336F1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1593,7 +1571,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CB68E51-38DF-75BA-D84A-47185F380343}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE66371B-635D-36A0-30C3-8A172E800FF2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1624,7 +1602,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E443236-F69C-A45B-5921-6E685D8D5473}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AEED903-F808-2B3F-8C0D-85F122FE9010}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1667,7 +1645,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A436061-0A4A-4D19-81B7-26BC19E57B53}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9527F9D9-FDBF-4608-A4FE-E8CDBD58299E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1705,7 +1683,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60FAA786-EEDC-4863-B30D-1600D44F97FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB4FDAC3-0958-4CD4-8D89-DBE58CBFED79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1748,7 +1726,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B3D8342-39D6-4B87-A7DB-7DEBA4352BA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4044F4F4-397D-4143-B63B-0636DC78E4EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2061,7 +2039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D62AA0-B0AD-49FD-B670-1709AE0D1460}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E239E327-6D16-4585-84E3-BA989C898533}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2073,98 +2051,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="38"/>
-    <col min="6" max="6" width="2" style="38" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="38" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="38"/>
+    <col min="1" max="5" width="12.5703125" style="33"/>
+    <col min="6" max="6" width="2" style="33" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="33" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="37"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="37"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="37"/>
+      <c r="F3" s="32"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="37"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="37"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="37"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="37"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="37"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="37"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="37"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="37"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="37"/>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="37"/>
+      <c r="F13" s="32"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="37"/>
+      <c r="F14" s="32"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="37"/>
+      <c r="F15" s="32"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="37"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="37"/>
+      <c r="F17" s="32"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="37"/>
+      <c r="F18" s="32"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="37"/>
+      <c r="F19" s="32"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="37"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="37"/>
+      <c r="F21" s="32"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="37"/>
+      <c r="F22" s="32"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="37"/>
+      <c r="F23" s="32"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="37"/>
+      <c r="F24" s="32"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="37"/>
+      <c r="F25" s="32"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="37"/>
+      <c r="F26" s="32"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="37"/>
+      <c r="F27" s="32"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="37"/>
+      <c r="F28" s="32"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="37"/>
+      <c r="F29" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -6393,52 +6371,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>340</v>
-      </c>
-      <c r="E1" s="33">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>292</v>
-      </c>
-      <c r="B2" s="36">
-        <v>59</v>
-      </c>
-      <c r="C2" s="34">
-        <v>3.9016003174183311E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/VENANCIO_AIRES.xlsx
+++ b/VENANCIO_AIRES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14845700-FC8C-417C-872F-4C75665D438D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{351DB4EF-0696-4333-AF95-420499D0FC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1319,7 +1319,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{D074189F-4199-40CF-8A0C-0EBEF73254E1}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{5C630CA1-082D-474A-9460-2AED02250C39}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1349,10 +1349,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8DFD1D9-A222-44CF-98D3-9D9E8A6B1F71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D44E69B-04BD-4A24-A2BB-6007148B2B6C}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1390,7 +1390,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{844ABEC4-45D4-471C-9DED-E66FA6E4B850}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFF2CE22-A150-4061-8F3B-0E1775D5B903}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1453,7 +1453,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE32A3F7-FAAB-4598-ACDD-3391797AF91A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA886EBF-4135-476C-A319-C721F1144C53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1472,7 +1472,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AA1D65F-B426-F7EC-91E5-B747F3914EC8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81C3ACF3-53FF-806C-F95F-955D724E5654}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1521,7 +1521,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B356583-39A4-62CF-4531-CE23245A80C9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA8A92BA-4C90-F1D1-70C3-A5E3A1565318}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1540,7 +1540,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5616649B-AC16-C9CF-642A-4CEE307336F1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DF3865A-672F-0BFA-7AA7-9CF2E6557219}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1571,7 +1571,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE66371B-635D-36A0-30C3-8A172E800FF2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A3BEA94-D18E-D20F-ADC0-E4053249958B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1602,7 +1602,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AEED903-F808-2B3F-8C0D-85F122FE9010}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8248D375-3372-DCBD-7425-8C2ABDE9CD6A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1645,7 +1645,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9527F9D9-FDBF-4608-A4FE-E8CDBD58299E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{247FE6E9-7E5A-4ADB-B3F3-6F529A43E808}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1683,7 +1683,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB4FDAC3-0958-4CD4-8D89-DBE58CBFED79}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B23B393-9866-49DF-A4F2-9207430AE5B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1708,50 +1708,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4044F4F4-397D-4143-B63B-0636DC78E4EF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2039,7 +1995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E239E327-6D16-4585-84E3-BA989C898533}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4A1A93-6222-4C7B-9382-54A628E51722}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
